--- a/backend/uploads/Sample weldment dimension file.xlsx
+++ b/backend/uploads/Sample weldment dimension file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INEEXTPSR\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\T7TSX0OY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8203B1F-058B-428E-A156-AFE24E156EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FAE705-D8F6-421F-883D-D31EB47141CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A17ACA6-725F-4109-BF71-584CCE882799}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6A17ACA6-725F-4109-BF71-584CCE882799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample weldment dimension file " sheetId="14" r:id="rId1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -370,18 +372,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,6 +389,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -579,16 +581,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>366938</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>89199</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260258</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -611,8 +613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10370820" y="2918460"/>
-          <a:ext cx="260258" cy="249219"/>
+          <a:off x="27325207" y="5362575"/>
+          <a:ext cx="274954" cy="249219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,8 +946,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -975,7 +977,7 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -996,21 +998,21 @@
       <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1029,12 +1031,12 @@
       <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="21"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -1212,31 +1214,31 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="18">
         <v>193</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <v>50</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>47.5</v>
       </c>
-      <c r="E9" s="22">
-        <v>60</v>
-      </c>
-      <c r="F9" s="22">
+      <c r="E9" s="18">
+        <v>60</v>
+      </c>
+      <c r="F9" s="18">
         <v>46.400000000000006</v>
       </c>
-      <c r="G9" s="22">
-        <v>60</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="18">
+        <v>60</v>
+      </c>
+      <c r="H9" s="18">
         <v>162.60000000000002</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="18">
         <v>9.4</v>
       </c>
       <c r="J9" s="12">
@@ -1247,15 +1249,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="13">
         <v>107</v>
       </c>
@@ -1264,31 +1266,31 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="18">
         <v>193</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>50</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>47.5</v>
       </c>
-      <c r="E11" s="22">
-        <v>60</v>
-      </c>
-      <c r="F11" s="22">
+      <c r="E11" s="18">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18">
         <v>46.400000000000006</v>
       </c>
-      <c r="G11" s="22">
-        <v>60</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="18">
+        <v>60</v>
+      </c>
+      <c r="H11" s="18">
         <v>162.60000000000002</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="18">
         <v>9.4</v>
       </c>
       <c r="J11" s="12">
@@ -1299,15 +1301,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="13">
         <v>107</v>
       </c>
@@ -1783,16 +1785,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:K3"/>
@@ -1800,11 +1792,21 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1813,6 +1815,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="ee76dc95-7be5-4180-97ef-b1f45ed2facb">
+      <Value>56</Value>
+    </TaxCatchAll>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <g8deb424eb484b509e9135e78e56f62e xmlns="ee76dc95-7be5-4180-97ef-b1f45ed2facb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">General</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c1d1d22e-aa25-4e78-838b-0ed8c5ab6907</TermId>
+        </TermInfo>
+      </Terms>
+    </g8deb424eb484b509e9135e78e56f62e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3e35a6f-ac1b-4f3f-bd9f-c84aaaaf98bf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PCP_AncillaryFiles" ma:contentTypeID="0x010100DC9BBE70135F3D4DB47F8BF089A576D000883D7BA6EBF56944AA39049D175D56D5" ma:contentTypeVersion="29" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="7f6d983afbcf04cbfdc9db9bf141604b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ee76dc95-7be5-4180-97ef-b1f45ed2facb" xmlns:ns3="d3e35a6f-ac1b-4f3f-bd9f-c84aaaaf98bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1be245133b28dd7f6baf5039dc45e73" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2060,39 +2094,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="ee76dc95-7be5-4180-97ef-b1f45ed2facb">
-      <Value>56</Value>
-    </TaxCatchAll>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <g8deb424eb484b509e9135e78e56f62e xmlns="ee76dc95-7be5-4180-97ef-b1f45ed2facb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">General</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c1d1d22e-aa25-4e78-838b-0ed8c5ab6907</TermId>
-        </TermInfo>
-      </Terms>
-    </g8deb424eb484b509e9135e78e56f62e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3e35a6f-ac1b-4f3f-bd9f-c84aaaaf98bf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B4A34E-5E9B-4B0D-9732-6CF2FD62D372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D0E95AE-2E3D-4C56-BF79-DF2EA58925BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ee76dc95-7be5-4180-97ef-b1f45ed2facb"/>
+    <ds:schemaRef ds:uri="d3e35a6f-ac1b-4f3f-bd9f-c84aaaaf98bf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2677B5E2-187F-4541-A1C0-B6D8C1A3E265}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2110,24 +2132,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D0E95AE-2E3D-4C56-BF79-DF2EA58925BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="ee76dc95-7be5-4180-97ef-b1f45ed2facb"/>
-    <ds:schemaRef ds:uri="d3e35a6f-ac1b-4f3f-bd9f-c84aaaaf98bf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B4A34E-5E9B-4B0D-9732-6CF2FD62D372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>